--- a/SET20Price.xlsx
+++ b/SET20Price.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1</t>
   </si>
@@ -28,6 +28,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>28 ธ.ค. 2561</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t>GLOBAL</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,41 +466,26 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>172.5</v>
-      </c>
-      <c r="D5">
-        <v>213</v>
-      </c>
-      <c r="E5">
-        <v>176</v>
-      </c>
-      <c r="F5">
-        <v>230</v>
-      </c>
-      <c r="G5">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -505,19 +493,19 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>64.25</v>
+        <v>172.5</v>
       </c>
       <c r="D6">
-        <v>74.25</v>
+        <v>213</v>
       </c>
       <c r="E6">
-        <v>62.25</v>
+        <v>176</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -525,19 +513,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>14.8</v>
+        <v>64.25</v>
       </c>
       <c r="D7">
-        <v>11.9</v>
+        <v>74.25</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>62.25</v>
       </c>
       <c r="F7">
-        <v>10.6</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>12.1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -545,19 +533,19 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>203</v>
+        <v>14.8</v>
       </c>
       <c r="D8">
-        <v>160</v>
+        <v>11.9</v>
       </c>
       <c r="E8">
-        <v>118.5</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>121.5</v>
+        <v>10.6</v>
       </c>
       <c r="G8">
-        <v>129.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -565,19 +553,19 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>24.8</v>
+        <v>203</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="E9">
-        <v>20.8</v>
+        <v>118.5</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>121.5</v>
       </c>
       <c r="G9">
-        <v>25.5</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -585,19 +573,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>9.699999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="D10">
-        <v>10.9</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>8.300000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="F10">
-        <v>8.449999999999999</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>9.1</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -605,19 +593,19 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>26.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D11">
-        <v>52.5</v>
+        <v>10.9</v>
       </c>
       <c r="E11">
-        <v>48.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F11">
-        <v>40.5</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G11">
-        <v>33.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -625,19 +613,19 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>187.5</v>
+        <v>26.5</v>
       </c>
       <c r="D12">
-        <v>147</v>
+        <v>52.5</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>48.5</v>
       </c>
       <c r="F12">
-        <v>141</v>
+        <v>40.5</v>
       </c>
       <c r="G12">
-        <v>171.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -645,19 +633,19 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>9.550000000000001</v>
+        <v>187.5</v>
       </c>
       <c r="D13">
-        <v>13.2</v>
+        <v>147</v>
       </c>
       <c r="E13">
-        <v>9.300000000000001</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>9.35</v>
+        <v>141</v>
       </c>
       <c r="G13">
-        <v>8.75</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -665,19 +653,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>30.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>13.2</v>
       </c>
       <c r="E14">
-        <v>114.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F14">
-        <v>119.5</v>
+        <v>9.35</v>
       </c>
       <c r="G14">
-        <v>108.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -685,19 +673,19 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>15.5</v>
+        <v>30.75</v>
       </c>
       <c r="D15">
-        <v>26.5</v>
+        <v>84</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>114.5</v>
       </c>
       <c r="F15">
-        <v>81.75</v>
+        <v>119.5</v>
       </c>
       <c r="G15">
-        <v>37.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -705,19 +693,19 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>68.75</v>
+        <v>15.5</v>
       </c>
       <c r="D16">
-        <v>72.25</v>
+        <v>26.5</v>
       </c>
       <c r="E16">
-        <v>58.25</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>59</v>
+        <v>81.75</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -725,19 +713,19 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>24.6</v>
+        <v>68.75</v>
       </c>
       <c r="D17">
-        <v>27.5</v>
+        <v>72.25</v>
       </c>
       <c r="E17">
-        <v>26.75</v>
+        <v>58.25</v>
       </c>
       <c r="F17">
-        <v>25.5</v>
+        <v>59</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -745,19 +733,19 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>74.75</v>
+        <v>24.6</v>
       </c>
       <c r="D18">
-        <v>62.25</v>
+        <v>27.5</v>
       </c>
       <c r="E18">
-        <v>47.75</v>
+        <v>26.75</v>
       </c>
       <c r="F18">
-        <v>56.5</v>
+        <v>25.5</v>
       </c>
       <c r="G18">
-        <v>60.75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -765,19 +753,19 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>43.25</v>
+        <v>74.75</v>
       </c>
       <c r="D19">
-        <v>53.25</v>
+        <v>62.25</v>
       </c>
       <c r="E19">
-        <v>33.25</v>
+        <v>47.75</v>
       </c>
       <c r="F19">
-        <v>45.75</v>
+        <v>56.5</v>
       </c>
       <c r="G19">
-        <v>42.75</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -785,19 +773,19 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>42.5</v>
+        <v>43.25</v>
       </c>
       <c r="D20">
-        <v>43.75</v>
+        <v>53.25</v>
       </c>
       <c r="E20">
-        <v>49.25</v>
+        <v>33.25</v>
       </c>
       <c r="F20">
-        <v>96</v>
+        <v>45.75</v>
       </c>
       <c r="G20">
-        <v>88.75</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -805,19 +793,19 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>248</v>
+        <v>42.5</v>
       </c>
       <c r="D21">
-        <v>328</v>
+        <v>43.75</v>
       </c>
       <c r="E21">
-        <v>192.5</v>
+        <v>49.25</v>
       </c>
       <c r="F21">
-        <v>175.5</v>
+        <v>96</v>
       </c>
       <c r="G21">
-        <v>179</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -825,24 +813,44 @@
         <v>26</v>
       </c>
       <c r="C22">
+        <v>248</v>
+      </c>
+      <c r="D22">
+        <v>328</v>
+      </c>
+      <c r="E22">
+        <v>192.5</v>
+      </c>
+      <c r="F22">
+        <v>175.5</v>
+      </c>
+      <c r="G22">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
         <v>19.5</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>16.2</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>17</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>20.7</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>27</v>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
